--- a/data/trans_orig/P36BPD04_R_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_R_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>286596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>254286</v>
+        <v>257395</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>315190</v>
+        <v>313949</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7027971597565617</v>
+        <v>0.7027971597565619</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6235665412215852</v>
+        <v>0.6311891169823457</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7729176411295932</v>
+        <v>0.7698738004495279</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>140</v>
@@ -762,19 +762,19 @@
         <v>247703</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>222123</v>
+        <v>224851</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>271238</v>
+        <v>271914</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6832969868918649</v>
+        <v>0.683296986891865</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6127328581107975</v>
+        <v>0.6202578072144906</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7482187055824439</v>
+        <v>0.7500816680472777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>259</v>
@@ -783,19 +783,19 @@
         <v>534299</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>494609</v>
+        <v>493566</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>571114</v>
+        <v>570747</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6936202157771193</v>
+        <v>0.6936202157771191</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.642095333694564</v>
+        <v>0.6407405175510478</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7414127175115718</v>
+        <v>0.7409360535788354</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>121197</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92603</v>
+        <v>93844</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>153507</v>
+        <v>150398</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2972028402434384</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2270823588704065</v>
+        <v>0.230126199550472</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.376433458778415</v>
+        <v>0.3688108830176541</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -833,19 +833,19 @@
         <v>114809</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91274</v>
+        <v>90598</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>140389</v>
+        <v>137661</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.316703013108135</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2517812944175561</v>
+        <v>0.2499183319527227</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3872671418892029</v>
+        <v>0.3797421927855095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>120</v>
@@ -854,19 +854,19 @@
         <v>236006</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>199191</v>
+        <v>199558</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>275696</v>
+        <v>276739</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3063797842228809</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2585872824884284</v>
+        <v>0.2590639464211641</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3579046663054361</v>
+        <v>0.3592594824489517</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>329270</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>301069</v>
+        <v>301468</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>353533</v>
+        <v>355317</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6904530884809534</v>
+        <v>0.6904530884809535</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6313171492429297</v>
+        <v>0.6321541970757948</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7413300342778492</v>
+        <v>0.7450714207544421</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>342</v>
@@ -979,19 +979,19 @@
         <v>369228</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>348586</v>
+        <v>346253</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>390986</v>
+        <v>389100</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7368593528292524</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6956654417227205</v>
+        <v>0.691009010005854</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7802826257990602</v>
+        <v>0.7765181845114605</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>550</v>
@@ -1000,19 +1000,19 @@
         <v>698498</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>662598</v>
+        <v>663982</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>728128</v>
+        <v>729947</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7142302130968268</v>
+        <v>0.7142302130968267</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6775217077296545</v>
+        <v>0.678937153161286</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7445274041316294</v>
+        <v>0.7463880532133395</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>147620</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>123357</v>
+        <v>121573</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>175821</v>
+        <v>175422</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3095469115190465</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2586699657221507</v>
+        <v>0.2549285792455583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3686828507570705</v>
+        <v>0.3678458029242052</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>118</v>
@@ -1050,19 +1050,19 @@
         <v>131855</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>110097</v>
+        <v>111983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>152497</v>
+        <v>154830</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2631406471707475</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2197173742009396</v>
+        <v>0.2234818154885395</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3043345582772793</v>
+        <v>0.3089909899941459</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>212</v>
@@ -1071,19 +1071,19 @@
         <v>279475</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>249845</v>
+        <v>248026</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>315375</v>
+        <v>313991</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2857697869031732</v>
+        <v>0.2857697869031733</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2554725958683705</v>
+        <v>0.2536119467866604</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3224782922703455</v>
+        <v>0.321062846838714</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>462004</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>440405</v>
+        <v>438623</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>484689</v>
+        <v>485130</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.745504826663702</v>
+        <v>0.7455048266637018</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7106534462713886</v>
+        <v>0.7077770910097988</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7821103028280866</v>
+        <v>0.7828230561345086</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>659</v>
@@ -1196,19 +1196,19 @@
         <v>485770</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>467845</v>
+        <v>466928</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>503208</v>
+        <v>502891</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7808055122214316</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7519935534182771</v>
+        <v>0.7505205373846464</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.808834891987962</v>
+        <v>0.8083256000563608</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1063</v>
@@ -1217,19 +1217,19 @@
         <v>947773</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>916529</v>
+        <v>919460</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>976629</v>
+        <v>976857</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7631895683197303</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7380305564296481</v>
+        <v>0.7403904454472251</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7864256224549281</v>
+        <v>0.7866089589229848</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>157715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>135030</v>
+        <v>134589</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>179314</v>
+        <v>181096</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2544951733362981</v>
+        <v>0.254495173336298</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2178896971719134</v>
+        <v>0.2171769438654912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2893465537286117</v>
+        <v>0.2922229089902009</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>187</v>
@@ -1267,19 +1267,19 @@
         <v>136369</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>118931</v>
+        <v>119248</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>154294</v>
+        <v>155211</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2191944877785684</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1911651080120379</v>
+        <v>0.1916743999436392</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.248006446581723</v>
+        <v>0.2494794626153536</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>328</v>
@@ -1288,19 +1288,19 @@
         <v>294085</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>265229</v>
+        <v>265001</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>325329</v>
+        <v>322398</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2368104316802696</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.213574377545072</v>
+        <v>0.2133910410770152</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2619694435703518</v>
+        <v>0.2596095545527749</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>523718</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>501444</v>
+        <v>500153</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>544926</v>
+        <v>547564</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7475103601539625</v>
+        <v>0.7475103601539624</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7157175179982166</v>
+        <v>0.7138748378452665</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7777806466982076</v>
+        <v>0.7815457628124661</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>896</v>
@@ -1413,19 +1413,19 @@
         <v>582057</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>565278</v>
+        <v>564850</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>599637</v>
+        <v>600316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7909067936559837</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7681075794542834</v>
+        <v>0.7675259957455657</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8147944474079052</v>
+        <v>0.8157177313111269</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1392</v>
@@ -1434,19 +1434,19 @@
         <v>1105775</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1075650</v>
+        <v>1074679</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1134264</v>
+        <v>1132545</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7697420393733607</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7487715683573926</v>
+        <v>0.7480959143022976</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7895735606611468</v>
+        <v>0.788376934840769</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>176899</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>155691</v>
+        <v>153053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>199173</v>
+        <v>200464</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2524896398460375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2222193533017922</v>
+        <v>0.2184542371875338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2842824820017834</v>
+        <v>0.2861251621547335</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>243</v>
@@ -1484,19 +1484,19 @@
         <v>153879</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>136299</v>
+        <v>135620</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>170658</v>
+        <v>171086</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2090932063440164</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1852055525920949</v>
+        <v>0.1842822686888733</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2318924205457166</v>
+        <v>0.2324740042544343</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>412</v>
@@ -1505,19 +1505,19 @@
         <v>330778</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>302289</v>
+        <v>304008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>360903</v>
+        <v>361874</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2302579606266391</v>
+        <v>0.2302579606266392</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2104264393388533</v>
+        <v>0.211623065159231</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2512284316426074</v>
+        <v>0.2519040856977022</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>482357</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>461421</v>
+        <v>464577</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>499648</v>
+        <v>503295</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7930043054780322</v>
+        <v>0.7930043054780321</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7585859403011741</v>
+        <v>0.7637734079903358</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8214309578308688</v>
+        <v>0.8274269143779085</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>820</v>
@@ -1630,19 +1630,19 @@
         <v>499536</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>484968</v>
+        <v>485490</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>514345</v>
+        <v>514477</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8211790887230879</v>
+        <v>0.8211790887230883</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7972304699516785</v>
+        <v>0.798088384273676</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8455220680316344</v>
+        <v>0.8457396627655569</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1341</v>
@@ -1651,19 +1651,19 @@
         <v>981893</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>956721</v>
+        <v>958755</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1007204</v>
+        <v>1006572</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8070922968472365</v>
+        <v>0.8070922968472366</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7864011270324611</v>
+        <v>0.7880732381012537</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8278974997353781</v>
+        <v>0.8273778858275344</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>125908</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108617</v>
+        <v>104970</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>146844</v>
+        <v>143688</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2069956945219679</v>
+        <v>0.2069956945219678</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1785690421691313</v>
+        <v>0.1725730856220912</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.241414059698826</v>
+        <v>0.2362265920096643</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>181</v>
@@ -1701,19 +1701,19 @@
         <v>108780</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>93971</v>
+        <v>93839</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>123348</v>
+        <v>122826</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1788209112769118</v>
+        <v>0.1788209112769119</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1544779319683656</v>
+        <v>0.1542603372344431</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2027695300483215</v>
+        <v>0.201911615726324</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>322</v>
@@ -1722,19 +1722,19 @@
         <v>234688</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>209377</v>
+        <v>210009</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>259860</v>
+        <v>257826</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1929077031527635</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1721025002646218</v>
+        <v>0.1726221141724655</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2135988729675388</v>
+        <v>0.2119267618987464</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>329503</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>315142</v>
+        <v>315215</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>342384</v>
+        <v>343353</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8094310417834053</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7741531671290962</v>
+        <v>0.7743310941127119</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8410741715364795</v>
+        <v>0.8434539819149034</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>715</v>
@@ -1847,19 +1847,19 @@
         <v>379898</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>369271</v>
+        <v>370020</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>389067</v>
+        <v>389510</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8683745443641285</v>
+        <v>0.8683745443641286</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8440826385328621</v>
+        <v>0.8457950086508509</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8893322874324106</v>
+        <v>0.8903460696675981</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1183</v>
@@ -1868,19 +1868,19 @@
         <v>709401</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>690341</v>
+        <v>691791</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>726921</v>
+        <v>725728</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8399637115241343</v>
+        <v>0.8399637115241344</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8173955239538173</v>
+        <v>0.8191124750408584</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8607079757329116</v>
+        <v>0.8592956817754629</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>77577</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>64696</v>
+        <v>63727</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91938</v>
+        <v>91865</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1905689582165949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1589258284635205</v>
+        <v>0.1565460180850964</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2258468328709038</v>
+        <v>0.225668905887288</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>109</v>
@@ -1918,19 +1918,19 @@
         <v>57584</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48415</v>
+        <v>47972</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68211</v>
+        <v>67462</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1316254556358713</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1106677125675894</v>
+        <v>0.109653930332402</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1559173614671379</v>
+        <v>0.1542049913491493</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>211</v>
@@ -1939,19 +1939,19 @@
         <v>135161</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>117641</v>
+        <v>118834</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>154221</v>
+        <v>152771</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1600362884758656</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1392920242670884</v>
+        <v>0.1407043182245373</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1826044760461828</v>
+        <v>0.1808875249591416</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>269227</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>258188</v>
+        <v>257510</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>278272</v>
+        <v>277281</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8679195987153385</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8323339498924883</v>
+        <v>0.8301471957090312</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8970795126008246</v>
+        <v>0.8938829902904002</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>751</v>
@@ -2064,19 +2064,19 @@
         <v>392602</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>379673</v>
+        <v>380342</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>403277</v>
+        <v>403336</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8457447478744206</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8178917503674481</v>
+        <v>0.8193340461456156</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8687403927906781</v>
+        <v>0.8688664267226391</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1150</v>
@@ -2085,19 +2085,19 @@
         <v>661829</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>646310</v>
+        <v>645461</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>675500</v>
+        <v>675157</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8546271545162373</v>
+        <v>0.8546271545162372</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8345866342018297</v>
+        <v>0.8334910934834787</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8722807641024692</v>
+        <v>0.8718379878964835</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>40971</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31926</v>
+        <v>32917</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52010</v>
+        <v>52688</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1320804012846614</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1029204873991752</v>
+        <v>0.1061170097095999</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1676660501075117</v>
+        <v>0.1698528042909689</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>129</v>
@@ -2135,19 +2135,19 @@
         <v>71607</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>60932</v>
+        <v>60873</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>84536</v>
+        <v>83867</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1542552521255794</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1312596072093219</v>
+        <v>0.1311335732773609</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1821082496325519</v>
+        <v>0.1806659538543849</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>188</v>
@@ -2156,19 +2156,19 @@
         <v>112578</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>98907</v>
+        <v>99250</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>128097</v>
+        <v>128946</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1453728454837627</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1277192358975308</v>
+        <v>0.1281620121035164</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1654133657981702</v>
+        <v>0.1665089065165208</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>2682675</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2627174</v>
+        <v>2626347</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2739102</v>
+        <v>2741084</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.759843548727047</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7441234551250635</v>
+        <v>0.7438892186784272</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7758259766649906</v>
+        <v>0.776387560975671</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4323</v>
@@ -2281,19 +2281,19 @@
         <v>2956795</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2907958</v>
+        <v>2907273</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3001678</v>
+        <v>3000549</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.7923500154718549</v>
+        <v>0.7923500154718548</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7792628773010393</v>
+        <v>0.7790793578075638</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8043776058370031</v>
+        <v>0.8040748818248217</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6938</v>
@@ -2302,19 +2302,19 @@
         <v>5639470</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5563842</v>
+        <v>5562373</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5713424</v>
+        <v>5714151</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.776546887677106</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7661331051691534</v>
+        <v>0.7659307950908738</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7867302575493307</v>
+        <v>0.7868303033387067</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>847887</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>791460</v>
+        <v>789478</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>903388</v>
+        <v>904215</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2401564512729529</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2241740233350093</v>
+        <v>0.2236124390243292</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2558765448749365</v>
+        <v>0.2561107813215732</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1034</v>
@@ -2352,19 +2352,19 @@
         <v>774883</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>730000</v>
+        <v>731129</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>823720</v>
+        <v>824405</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2076499845281451</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1956223941629968</v>
+        <v>0.1959251181751782</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2207371226989607</v>
+        <v>0.2209206421924363</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1793</v>
@@ -2373,19 +2373,19 @@
         <v>1622770</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1548816</v>
+        <v>1548089</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1698398</v>
+        <v>1699867</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.223453112322894</v>
+        <v>0.2234531123228939</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2132697424506691</v>
+        <v>0.2131696966612933</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2338668948308466</v>
+        <v>0.2340692049091261</v>
       </c>
     </row>
     <row r="27">
